--- a/Testcases_updated050917.xlsx
+++ b/Testcases_updated050917.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="450" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="630" yWindow="450" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Trade_Equity" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Watch List" sheetId="3" r:id="rId6"/>
     <sheet name="Disclosures &amp; Footnotes" sheetId="7" r:id="rId7"/>
     <sheet name="Login Microsite" sheetId="8" r:id="rId8"/>
+    <sheet name="Quotes" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -4900,7 +4901,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7017,10 +7018,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F15"/>
+  <dimension ref="C2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7193,7 +7194,24 @@
         <v>297</v>
       </c>
     </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>